--- a/학사관리_샘플데이터/샘플-성적일람표-과목별성적.xlsx
+++ b/학사관리_샘플데이터/샘플-성적일람표-과목별성적.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\학사관리_샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,9 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2191,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
